--- a/test/template.xlsx
+++ b/test/template.xlsx
@@ -5,15 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\phpstudy_pro\WWW\composerPackage\utils\phpExcelReader\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\phpstudy_pro\WWW\composerPackage\phpExcelReader\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1E20236-7DEF-46FA-8362-75F123509C01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EEA974D-B227-47DE-B423-1DADC0D92FBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="工作表2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="工作表3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>Tracking NO.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -117,11 +120,80 @@
     <t>Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年龄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMZ324511</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMZ324512</t>
+  </si>
+  <si>
+    <t>AMZ324513</t>
+  </si>
+  <si>
+    <t>生日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -199,12 +271,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -213,9 +288,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -498,9 +572,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -512,10 +586,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="4"/>
+      <c r="B1" s="5"/>
     </row>
     <row r="2" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -535,7 +609,7 @@
       <c r="B3" s="1">
         <v>12</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="3">
         <v>44331</v>
       </c>
     </row>
@@ -546,7 +620,7 @@
       <c r="B4" s="1">
         <v>12</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="3">
         <v>44197</v>
       </c>
     </row>
@@ -558,4 +632,182 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E3D5713-ED30-400C-B323-F57A858A4558}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="6">
+        <v>43831</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="6">
+        <v>43832</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="6">
+        <v>43833</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E958D7F-CC2E-4583-A220-42EFAC770432}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4535A3BD-D67B-4807-A629-418E8BF2C1B6}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="7">
+        <v>18.89</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="7">
+        <v>19.89</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="7">
+        <v>20.89</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>